--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>61.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>62.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,14 +787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -782,14 +825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -798,13 +863,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -953,14 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -969,14 +1034,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -985,13 +1072,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1751,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1767,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1783,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1799,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603229-奥翔药业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3395</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>562520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>华夏中证智选1000成长创新策略ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>99.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3468</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -695,36 +733,644 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>56.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.21</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3380</t>
+          <t>2.8187</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,7 +1575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -959,644 +1605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.15</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>60.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8187</t>
+          <t>0.3380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2407</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012173</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰兴泽优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8800</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8579</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7662</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4469</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012174</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰兴泽优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3720</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001579</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰大农业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3575</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2733</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1600</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1599</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001922</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰多策略收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>24.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002197</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰鑫策略价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0727</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001850</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000367</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰安康定期支付混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002061</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰安康定期支付混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004252</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.23</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1661,36 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>562520</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证智选1000成长创新策略ETF</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>62.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.3468</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1704,128 +1742,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.34</v>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>